--- a/APM files/135460914/135460914 IMPORT 2 VID creation.xlsx
+++ b/APM files/135460914/135460914 IMPORT 2 VID creation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darkesthj/dev/workspace/APM files/135460914/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55040619-E2C6-BC46-BAFD-1DC6F3621486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82B89AC0-E7FE-8541-9E0C-B78F5CAE6825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25600" yWindow="500" windowWidth="25600" windowHeight="27040" xr2:uid="{9D4D5596-5114-4242-A7CC-17D7C82386FC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2901" uniqueCount="770">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3381" uniqueCount="771">
   <si>
     <t>Expedia ID</t>
   </si>
@@ -2346,6 +2346,9 @@
   </si>
   <si>
     <t>IDR</t>
+  </si>
+  <si>
+    <t>PT Horizon Internusa Persada</t>
   </si>
 </sst>
 </file>
@@ -2361,18 +2364,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -2387,10 +2384,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2718,8 +2714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B81CCFE-720E-40D7-A104-13F9DD318DB9}">
   <dimension ref="A1:U241"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14:O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2843,8 +2839,12 @@
       <c r="L2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
+      <c r="M2" t="s">
+        <v>770</v>
+      </c>
+      <c r="N2" t="s">
+        <v>770</v>
+      </c>
       <c r="P2" t="s">
         <v>23</v>
       </c>
@@ -2883,8 +2883,12 @@
       <c r="L3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
+      <c r="M3" t="s">
+        <v>770</v>
+      </c>
+      <c r="N3" t="s">
+        <v>770</v>
+      </c>
       <c r="P3" t="s">
         <v>23</v>
       </c>
@@ -2923,8 +2927,12 @@
       <c r="L4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
+      <c r="M4" t="s">
+        <v>770</v>
+      </c>
+      <c r="N4" t="s">
+        <v>770</v>
+      </c>
       <c r="P4" t="s">
         <v>23</v>
       </c>
@@ -2963,8 +2971,12 @@
       <c r="L5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
+      <c r="M5" t="s">
+        <v>770</v>
+      </c>
+      <c r="N5" t="s">
+        <v>770</v>
+      </c>
       <c r="P5" t="s">
         <v>23</v>
       </c>
@@ -3003,8 +3015,12 @@
       <c r="L6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
+      <c r="M6" t="s">
+        <v>770</v>
+      </c>
+      <c r="N6" t="s">
+        <v>770</v>
+      </c>
       <c r="P6" t="s">
         <v>23</v>
       </c>
@@ -3043,8 +3059,12 @@
       <c r="L7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
+      <c r="M7" t="s">
+        <v>770</v>
+      </c>
+      <c r="N7" t="s">
+        <v>770</v>
+      </c>
       <c r="P7" t="s">
         <v>23</v>
       </c>
@@ -3083,8 +3103,12 @@
       <c r="L8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
+      <c r="M8" t="s">
+        <v>770</v>
+      </c>
+      <c r="N8" t="s">
+        <v>770</v>
+      </c>
       <c r="P8" t="s">
         <v>23</v>
       </c>
@@ -3123,8 +3147,12 @@
       <c r="L9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
+      <c r="M9" t="s">
+        <v>770</v>
+      </c>
+      <c r="N9" t="s">
+        <v>770</v>
+      </c>
       <c r="P9" t="s">
         <v>23</v>
       </c>
@@ -3163,8 +3191,12 @@
       <c r="L10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
+      <c r="M10" t="s">
+        <v>770</v>
+      </c>
+      <c r="N10" t="s">
+        <v>770</v>
+      </c>
       <c r="P10" t="s">
         <v>23</v>
       </c>
@@ -3203,8 +3235,12 @@
       <c r="L11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
+      <c r="M11" t="s">
+        <v>770</v>
+      </c>
+      <c r="N11" t="s">
+        <v>770</v>
+      </c>
       <c r="P11" t="s">
         <v>23</v>
       </c>
@@ -3243,8 +3279,12 @@
       <c r="L12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
+      <c r="M12" t="s">
+        <v>770</v>
+      </c>
+      <c r="N12" t="s">
+        <v>770</v>
+      </c>
       <c r="P12" t="s">
         <v>23</v>
       </c>
@@ -3283,8 +3323,12 @@
       <c r="L13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
+      <c r="M13" t="s">
+        <v>770</v>
+      </c>
+      <c r="N13" t="s">
+        <v>770</v>
+      </c>
       <c r="P13" t="s">
         <v>23</v>
       </c>
@@ -3323,8 +3367,12 @@
       <c r="L14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
+      <c r="M14" t="s">
+        <v>770</v>
+      </c>
+      <c r="N14" t="s">
+        <v>770</v>
+      </c>
       <c r="P14" t="s">
         <v>23</v>
       </c>
@@ -3363,8 +3411,12 @@
       <c r="L15" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
+      <c r="M15" t="s">
+        <v>770</v>
+      </c>
+      <c r="N15" t="s">
+        <v>770</v>
+      </c>
       <c r="P15" t="s">
         <v>23</v>
       </c>
@@ -3403,8 +3455,12 @@
       <c r="L16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
+      <c r="M16" t="s">
+        <v>770</v>
+      </c>
+      <c r="N16" t="s">
+        <v>770</v>
+      </c>
       <c r="P16" t="s">
         <v>23</v>
       </c>
@@ -3443,8 +3499,12 @@
       <c r="L17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
+      <c r="M17" t="s">
+        <v>770</v>
+      </c>
+      <c r="N17" t="s">
+        <v>770</v>
+      </c>
       <c r="P17" t="s">
         <v>23</v>
       </c>
@@ -3483,8 +3543,12 @@
       <c r="L18" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
+      <c r="M18" t="s">
+        <v>770</v>
+      </c>
+      <c r="N18" t="s">
+        <v>770</v>
+      </c>
       <c r="P18" t="s">
         <v>23</v>
       </c>
@@ -3523,8 +3587,12 @@
       <c r="L19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
+      <c r="M19" t="s">
+        <v>770</v>
+      </c>
+      <c r="N19" t="s">
+        <v>770</v>
+      </c>
       <c r="P19" t="s">
         <v>23</v>
       </c>
@@ -3563,8 +3631,12 @@
       <c r="L20" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
+      <c r="M20" t="s">
+        <v>770</v>
+      </c>
+      <c r="N20" t="s">
+        <v>770</v>
+      </c>
       <c r="P20" t="s">
         <v>23</v>
       </c>
@@ -3603,8 +3675,12 @@
       <c r="L21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
+      <c r="M21" t="s">
+        <v>770</v>
+      </c>
+      <c r="N21" t="s">
+        <v>770</v>
+      </c>
       <c r="P21" t="s">
         <v>23</v>
       </c>
@@ -3643,8 +3719,12 @@
       <c r="L22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
+      <c r="M22" t="s">
+        <v>770</v>
+      </c>
+      <c r="N22" t="s">
+        <v>770</v>
+      </c>
       <c r="P22" t="s">
         <v>23</v>
       </c>
@@ -3683,8 +3763,12 @@
       <c r="L23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
+      <c r="M23" t="s">
+        <v>770</v>
+      </c>
+      <c r="N23" t="s">
+        <v>770</v>
+      </c>
       <c r="P23" t="s">
         <v>23</v>
       </c>
@@ -3723,8 +3807,12 @@
       <c r="L24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
+      <c r="M24" t="s">
+        <v>770</v>
+      </c>
+      <c r="N24" t="s">
+        <v>770</v>
+      </c>
       <c r="P24" t="s">
         <v>23</v>
       </c>
@@ -3763,8 +3851,12 @@
       <c r="L25" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
+      <c r="M25" t="s">
+        <v>770</v>
+      </c>
+      <c r="N25" t="s">
+        <v>770</v>
+      </c>
       <c r="P25" t="s">
         <v>23</v>
       </c>
@@ -3803,8 +3895,12 @@
       <c r="L26" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
+      <c r="M26" t="s">
+        <v>770</v>
+      </c>
+      <c r="N26" t="s">
+        <v>770</v>
+      </c>
       <c r="P26" t="s">
         <v>23</v>
       </c>
@@ -3843,8 +3939,12 @@
       <c r="L27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
+      <c r="M27" t="s">
+        <v>770</v>
+      </c>
+      <c r="N27" t="s">
+        <v>770</v>
+      </c>
       <c r="P27" t="s">
         <v>23</v>
       </c>
@@ -3883,8 +3983,12 @@
       <c r="L28" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
+      <c r="M28" t="s">
+        <v>770</v>
+      </c>
+      <c r="N28" t="s">
+        <v>770</v>
+      </c>
       <c r="P28" t="s">
         <v>23</v>
       </c>
@@ -3923,8 +4027,12 @@
       <c r="L29" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
+      <c r="M29" t="s">
+        <v>770</v>
+      </c>
+      <c r="N29" t="s">
+        <v>770</v>
+      </c>
       <c r="P29" t="s">
         <v>23</v>
       </c>
@@ -3963,8 +4071,12 @@
       <c r="L30" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
+      <c r="M30" t="s">
+        <v>770</v>
+      </c>
+      <c r="N30" t="s">
+        <v>770</v>
+      </c>
       <c r="P30" t="s">
         <v>23</v>
       </c>
@@ -4003,8 +4115,12 @@
       <c r="L31" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
+      <c r="M31" t="s">
+        <v>770</v>
+      </c>
+      <c r="N31" t="s">
+        <v>770</v>
+      </c>
       <c r="P31" t="s">
         <v>23</v>
       </c>
@@ -4043,8 +4159,12 @@
       <c r="L32" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
+      <c r="M32" t="s">
+        <v>770</v>
+      </c>
+      <c r="N32" t="s">
+        <v>770</v>
+      </c>
       <c r="P32" t="s">
         <v>23</v>
       </c>
@@ -4083,8 +4203,12 @@
       <c r="L33" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
+      <c r="M33" t="s">
+        <v>770</v>
+      </c>
+      <c r="N33" t="s">
+        <v>770</v>
+      </c>
       <c r="P33" t="s">
         <v>23</v>
       </c>
@@ -4123,8 +4247,12 @@
       <c r="L34" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
+      <c r="M34" t="s">
+        <v>770</v>
+      </c>
+      <c r="N34" t="s">
+        <v>770</v>
+      </c>
       <c r="P34" t="s">
         <v>23</v>
       </c>
@@ -4163,8 +4291,12 @@
       <c r="L35" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
+      <c r="M35" t="s">
+        <v>770</v>
+      </c>
+      <c r="N35" t="s">
+        <v>770</v>
+      </c>
       <c r="P35" t="s">
         <v>23</v>
       </c>
@@ -4203,8 +4335,12 @@
       <c r="L36" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
+      <c r="M36" t="s">
+        <v>770</v>
+      </c>
+      <c r="N36" t="s">
+        <v>770</v>
+      </c>
       <c r="P36" t="s">
         <v>23</v>
       </c>
@@ -4243,8 +4379,12 @@
       <c r="L37" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
+      <c r="M37" t="s">
+        <v>770</v>
+      </c>
+      <c r="N37" t="s">
+        <v>770</v>
+      </c>
       <c r="P37" t="s">
         <v>23</v>
       </c>
@@ -4283,8 +4423,12 @@
       <c r="L38" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
+      <c r="M38" t="s">
+        <v>770</v>
+      </c>
+      <c r="N38" t="s">
+        <v>770</v>
+      </c>
       <c r="P38" t="s">
         <v>23</v>
       </c>
@@ -4323,8 +4467,12 @@
       <c r="L39" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
+      <c r="M39" t="s">
+        <v>770</v>
+      </c>
+      <c r="N39" t="s">
+        <v>770</v>
+      </c>
       <c r="P39" t="s">
         <v>23</v>
       </c>
@@ -4363,8 +4511,12 @@
       <c r="L40" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
+      <c r="M40" t="s">
+        <v>770</v>
+      </c>
+      <c r="N40" t="s">
+        <v>770</v>
+      </c>
       <c r="P40" t="s">
         <v>23</v>
       </c>
@@ -4403,8 +4555,12 @@
       <c r="L41" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
+      <c r="M41" t="s">
+        <v>770</v>
+      </c>
+      <c r="N41" t="s">
+        <v>770</v>
+      </c>
       <c r="P41" t="s">
         <v>23</v>
       </c>
@@ -4443,8 +4599,12 @@
       <c r="L42" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
+      <c r="M42" t="s">
+        <v>770</v>
+      </c>
+      <c r="N42" t="s">
+        <v>770</v>
+      </c>
       <c r="P42" t="s">
         <v>23</v>
       </c>
@@ -4483,8 +4643,12 @@
       <c r="L43" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
+      <c r="M43" t="s">
+        <v>770</v>
+      </c>
+      <c r="N43" t="s">
+        <v>770</v>
+      </c>
       <c r="P43" t="s">
         <v>23</v>
       </c>
@@ -4523,8 +4687,12 @@
       <c r="L44" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
+      <c r="M44" t="s">
+        <v>770</v>
+      </c>
+      <c r="N44" t="s">
+        <v>770</v>
+      </c>
       <c r="P44" t="s">
         <v>23</v>
       </c>
@@ -4563,8 +4731,12 @@
       <c r="L45" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
+      <c r="M45" t="s">
+        <v>770</v>
+      </c>
+      <c r="N45" t="s">
+        <v>770</v>
+      </c>
       <c r="P45" t="s">
         <v>23</v>
       </c>
@@ -4603,8 +4775,12 @@
       <c r="L46" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
+      <c r="M46" t="s">
+        <v>770</v>
+      </c>
+      <c r="N46" t="s">
+        <v>770</v>
+      </c>
       <c r="P46" t="s">
         <v>23</v>
       </c>
@@ -4643,8 +4819,12 @@
       <c r="L47" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
+      <c r="M47" t="s">
+        <v>770</v>
+      </c>
+      <c r="N47" t="s">
+        <v>770</v>
+      </c>
       <c r="P47" t="s">
         <v>23</v>
       </c>
@@ -4683,8 +4863,12 @@
       <c r="L48" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
+      <c r="M48" t="s">
+        <v>770</v>
+      </c>
+      <c r="N48" t="s">
+        <v>770</v>
+      </c>
       <c r="P48" t="s">
         <v>23</v>
       </c>
@@ -4723,8 +4907,12 @@
       <c r="L49" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
+      <c r="M49" t="s">
+        <v>770</v>
+      </c>
+      <c r="N49" t="s">
+        <v>770</v>
+      </c>
       <c r="P49" t="s">
         <v>23</v>
       </c>
@@ -4763,8 +4951,12 @@
       <c r="L50" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
+      <c r="M50" t="s">
+        <v>770</v>
+      </c>
+      <c r="N50" t="s">
+        <v>770</v>
+      </c>
       <c r="P50" t="s">
         <v>23</v>
       </c>
@@ -4803,8 +4995,12 @@
       <c r="L51" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
+      <c r="M51" t="s">
+        <v>770</v>
+      </c>
+      <c r="N51" t="s">
+        <v>770</v>
+      </c>
       <c r="P51" t="s">
         <v>23</v>
       </c>
@@ -4843,8 +5039,12 @@
       <c r="L52" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
+      <c r="M52" t="s">
+        <v>770</v>
+      </c>
+      <c r="N52" t="s">
+        <v>770</v>
+      </c>
       <c r="P52" t="s">
         <v>23</v>
       </c>
@@ -4883,8 +5083,12 @@
       <c r="L53" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
+      <c r="M53" t="s">
+        <v>770</v>
+      </c>
+      <c r="N53" t="s">
+        <v>770</v>
+      </c>
       <c r="P53" t="s">
         <v>23</v>
       </c>
@@ -4923,8 +5127,12 @@
       <c r="L54" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
+      <c r="M54" t="s">
+        <v>770</v>
+      </c>
+      <c r="N54" t="s">
+        <v>770</v>
+      </c>
       <c r="P54" t="s">
         <v>23</v>
       </c>
@@ -4963,8 +5171,12 @@
       <c r="L55" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
+      <c r="M55" t="s">
+        <v>770</v>
+      </c>
+      <c r="N55" t="s">
+        <v>770</v>
+      </c>
       <c r="P55" t="s">
         <v>23</v>
       </c>
@@ -5003,8 +5215,12 @@
       <c r="L56" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M56" s="2"/>
-      <c r="N56" s="2"/>
+      <c r="M56" t="s">
+        <v>770</v>
+      </c>
+      <c r="N56" t="s">
+        <v>770</v>
+      </c>
       <c r="P56" t="s">
         <v>23</v>
       </c>
@@ -5043,8 +5259,12 @@
       <c r="L57" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M57" s="2"/>
-      <c r="N57" s="2"/>
+      <c r="M57" t="s">
+        <v>770</v>
+      </c>
+      <c r="N57" t="s">
+        <v>770</v>
+      </c>
       <c r="P57" t="s">
         <v>23</v>
       </c>
@@ -5083,8 +5303,12 @@
       <c r="L58" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
+      <c r="M58" t="s">
+        <v>770</v>
+      </c>
+      <c r="N58" t="s">
+        <v>770</v>
+      </c>
       <c r="P58" t="s">
         <v>23</v>
       </c>
@@ -5123,8 +5347,12 @@
       <c r="L59" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M59" s="2"/>
-      <c r="N59" s="2"/>
+      <c r="M59" t="s">
+        <v>770</v>
+      </c>
+      <c r="N59" t="s">
+        <v>770</v>
+      </c>
       <c r="P59" t="s">
         <v>23</v>
       </c>
@@ -5163,8 +5391,12 @@
       <c r="L60" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
+      <c r="M60" t="s">
+        <v>770</v>
+      </c>
+      <c r="N60" t="s">
+        <v>770</v>
+      </c>
       <c r="P60" t="s">
         <v>23</v>
       </c>
@@ -5203,8 +5435,12 @@
       <c r="L61" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M61" s="2"/>
-      <c r="N61" s="2"/>
+      <c r="M61" t="s">
+        <v>770</v>
+      </c>
+      <c r="N61" t="s">
+        <v>770</v>
+      </c>
       <c r="P61" t="s">
         <v>23</v>
       </c>
@@ -5243,8 +5479,12 @@
       <c r="L62" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M62" s="2"/>
-      <c r="N62" s="2"/>
+      <c r="M62" t="s">
+        <v>770</v>
+      </c>
+      <c r="N62" t="s">
+        <v>770</v>
+      </c>
       <c r="P62" t="s">
         <v>23</v>
       </c>
@@ -5283,8 +5523,12 @@
       <c r="L63" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M63" s="2"/>
-      <c r="N63" s="2"/>
+      <c r="M63" t="s">
+        <v>770</v>
+      </c>
+      <c r="N63" t="s">
+        <v>770</v>
+      </c>
       <c r="P63" t="s">
         <v>23</v>
       </c>
@@ -5323,8 +5567,12 @@
       <c r="L64" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M64" s="2"/>
-      <c r="N64" s="2"/>
+      <c r="M64" t="s">
+        <v>770</v>
+      </c>
+      <c r="N64" t="s">
+        <v>770</v>
+      </c>
       <c r="P64" t="s">
         <v>23</v>
       </c>
@@ -5363,8 +5611,12 @@
       <c r="L65" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M65" s="2"/>
-      <c r="N65" s="2"/>
+      <c r="M65" t="s">
+        <v>770</v>
+      </c>
+      <c r="N65" t="s">
+        <v>770</v>
+      </c>
       <c r="P65" t="s">
         <v>23</v>
       </c>
@@ -5403,8 +5655,12 @@
       <c r="L66" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M66" s="2"/>
-      <c r="N66" s="2"/>
+      <c r="M66" t="s">
+        <v>770</v>
+      </c>
+      <c r="N66" t="s">
+        <v>770</v>
+      </c>
       <c r="P66" t="s">
         <v>23</v>
       </c>
@@ -5443,8 +5699,12 @@
       <c r="L67" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M67" s="2"/>
-      <c r="N67" s="2"/>
+      <c r="M67" t="s">
+        <v>770</v>
+      </c>
+      <c r="N67" t="s">
+        <v>770</v>
+      </c>
       <c r="P67" t="s">
         <v>23</v>
       </c>
@@ -5483,8 +5743,12 @@
       <c r="L68" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M68" s="2"/>
-      <c r="N68" s="2"/>
+      <c r="M68" t="s">
+        <v>770</v>
+      </c>
+      <c r="N68" t="s">
+        <v>770</v>
+      </c>
       <c r="P68" t="s">
         <v>23</v>
       </c>
@@ -5523,8 +5787,12 @@
       <c r="L69" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M69" s="2"/>
-      <c r="N69" s="2"/>
+      <c r="M69" t="s">
+        <v>770</v>
+      </c>
+      <c r="N69" t="s">
+        <v>770</v>
+      </c>
       <c r="P69" t="s">
         <v>23</v>
       </c>
@@ -5563,8 +5831,12 @@
       <c r="L70" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M70" s="2"/>
-      <c r="N70" s="2"/>
+      <c r="M70" t="s">
+        <v>770</v>
+      </c>
+      <c r="N70" t="s">
+        <v>770</v>
+      </c>
       <c r="P70" t="s">
         <v>23</v>
       </c>
@@ -5603,8 +5875,12 @@
       <c r="L71" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M71" s="2"/>
-      <c r="N71" s="2"/>
+      <c r="M71" t="s">
+        <v>770</v>
+      </c>
+      <c r="N71" t="s">
+        <v>770</v>
+      </c>
       <c r="P71" t="s">
         <v>23</v>
       </c>
@@ -5643,8 +5919,12 @@
       <c r="L72" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M72" s="2"/>
-      <c r="N72" s="2"/>
+      <c r="M72" t="s">
+        <v>770</v>
+      </c>
+      <c r="N72" t="s">
+        <v>770</v>
+      </c>
       <c r="P72" t="s">
         <v>23</v>
       </c>
@@ -5683,8 +5963,12 @@
       <c r="L73" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M73" s="2"/>
-      <c r="N73" s="2"/>
+      <c r="M73" t="s">
+        <v>770</v>
+      </c>
+      <c r="N73" t="s">
+        <v>770</v>
+      </c>
       <c r="P73" t="s">
         <v>23</v>
       </c>
@@ -5723,8 +6007,12 @@
       <c r="L74" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M74" s="2"/>
-      <c r="N74" s="2"/>
+      <c r="M74" t="s">
+        <v>770</v>
+      </c>
+      <c r="N74" t="s">
+        <v>770</v>
+      </c>
       <c r="P74" t="s">
         <v>23</v>
       </c>
@@ -5763,8 +6051,12 @@
       <c r="L75" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M75" s="2"/>
-      <c r="N75" s="2"/>
+      <c r="M75" t="s">
+        <v>770</v>
+      </c>
+      <c r="N75" t="s">
+        <v>770</v>
+      </c>
       <c r="P75" t="s">
         <v>23</v>
       </c>
@@ -5803,8 +6095,12 @@
       <c r="L76" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M76" s="2"/>
-      <c r="N76" s="2"/>
+      <c r="M76" t="s">
+        <v>770</v>
+      </c>
+      <c r="N76" t="s">
+        <v>770</v>
+      </c>
       <c r="P76" t="s">
         <v>23</v>
       </c>
@@ -5843,8 +6139,12 @@
       <c r="L77" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M77" s="2"/>
-      <c r="N77" s="2"/>
+      <c r="M77" t="s">
+        <v>770</v>
+      </c>
+      <c r="N77" t="s">
+        <v>770</v>
+      </c>
       <c r="P77" t="s">
         <v>23</v>
       </c>
@@ -5883,8 +6183,12 @@
       <c r="L78" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M78" s="2"/>
-      <c r="N78" s="2"/>
+      <c r="M78" t="s">
+        <v>770</v>
+      </c>
+      <c r="N78" t="s">
+        <v>770</v>
+      </c>
       <c r="P78" t="s">
         <v>23</v>
       </c>
@@ -5923,8 +6227,12 @@
       <c r="L79" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M79" s="2"/>
-      <c r="N79" s="2"/>
+      <c r="M79" t="s">
+        <v>770</v>
+      </c>
+      <c r="N79" t="s">
+        <v>770</v>
+      </c>
       <c r="P79" t="s">
         <v>23</v>
       </c>
@@ -5963,8 +6271,12 @@
       <c r="L80" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M80" s="2"/>
-      <c r="N80" s="2"/>
+      <c r="M80" t="s">
+        <v>770</v>
+      </c>
+      <c r="N80" t="s">
+        <v>770</v>
+      </c>
       <c r="P80" t="s">
         <v>23</v>
       </c>
@@ -6003,8 +6315,12 @@
       <c r="L81" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M81" s="2"/>
-      <c r="N81" s="2"/>
+      <c r="M81" t="s">
+        <v>770</v>
+      </c>
+      <c r="N81" t="s">
+        <v>770</v>
+      </c>
       <c r="P81" t="s">
         <v>23</v>
       </c>
@@ -6043,8 +6359,12 @@
       <c r="L82" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M82" s="2"/>
-      <c r="N82" s="2"/>
+      <c r="M82" t="s">
+        <v>770</v>
+      </c>
+      <c r="N82" t="s">
+        <v>770</v>
+      </c>
       <c r="P82" t="s">
         <v>23</v>
       </c>
@@ -6083,8 +6403,12 @@
       <c r="L83" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M83" s="2"/>
-      <c r="N83" s="2"/>
+      <c r="M83" t="s">
+        <v>770</v>
+      </c>
+      <c r="N83" t="s">
+        <v>770</v>
+      </c>
       <c r="P83" t="s">
         <v>23</v>
       </c>
@@ -6123,8 +6447,12 @@
       <c r="L84" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M84" s="2"/>
-      <c r="N84" s="2"/>
+      <c r="M84" t="s">
+        <v>770</v>
+      </c>
+      <c r="N84" t="s">
+        <v>770</v>
+      </c>
       <c r="P84" t="s">
         <v>23</v>
       </c>
@@ -6163,8 +6491,12 @@
       <c r="L85" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M85" s="2"/>
-      <c r="N85" s="2"/>
+      <c r="M85" t="s">
+        <v>770</v>
+      </c>
+      <c r="N85" t="s">
+        <v>770</v>
+      </c>
       <c r="P85" t="s">
         <v>23</v>
       </c>
@@ -6203,8 +6535,12 @@
       <c r="L86" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M86" s="2"/>
-      <c r="N86" s="2"/>
+      <c r="M86" t="s">
+        <v>770</v>
+      </c>
+      <c r="N86" t="s">
+        <v>770</v>
+      </c>
       <c r="P86" t="s">
         <v>23</v>
       </c>
@@ -6243,8 +6579,12 @@
       <c r="L87" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M87" s="2"/>
-      <c r="N87" s="2"/>
+      <c r="M87" t="s">
+        <v>770</v>
+      </c>
+      <c r="N87" t="s">
+        <v>770</v>
+      </c>
       <c r="P87" t="s">
         <v>23</v>
       </c>
@@ -6283,8 +6623,12 @@
       <c r="L88" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M88" s="2"/>
-      <c r="N88" s="2"/>
+      <c r="M88" t="s">
+        <v>770</v>
+      </c>
+      <c r="N88" t="s">
+        <v>770</v>
+      </c>
       <c r="P88" t="s">
         <v>23</v>
       </c>
@@ -6323,8 +6667,12 @@
       <c r="L89" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M89" s="2"/>
-      <c r="N89" s="2"/>
+      <c r="M89" t="s">
+        <v>770</v>
+      </c>
+      <c r="N89" t="s">
+        <v>770</v>
+      </c>
       <c r="P89" t="s">
         <v>23</v>
       </c>
@@ -6363,8 +6711,12 @@
       <c r="L90" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M90" s="2"/>
-      <c r="N90" s="2"/>
+      <c r="M90" t="s">
+        <v>770</v>
+      </c>
+      <c r="N90" t="s">
+        <v>770</v>
+      </c>
       <c r="P90" t="s">
         <v>23</v>
       </c>
@@ -6403,8 +6755,12 @@
       <c r="L91" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M91" s="2"/>
-      <c r="N91" s="2"/>
+      <c r="M91" t="s">
+        <v>770</v>
+      </c>
+      <c r="N91" t="s">
+        <v>770</v>
+      </c>
       <c r="P91" t="s">
         <v>23</v>
       </c>
@@ -6443,8 +6799,12 @@
       <c r="L92" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M92" s="2"/>
-      <c r="N92" s="2"/>
+      <c r="M92" t="s">
+        <v>770</v>
+      </c>
+      <c r="N92" t="s">
+        <v>770</v>
+      </c>
       <c r="P92" t="s">
         <v>23</v>
       </c>
@@ -6483,8 +6843,12 @@
       <c r="L93" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M93" s="2"/>
-      <c r="N93" s="2"/>
+      <c r="M93" t="s">
+        <v>770</v>
+      </c>
+      <c r="N93" t="s">
+        <v>770</v>
+      </c>
       <c r="P93" t="s">
         <v>23</v>
       </c>
@@ -6523,8 +6887,12 @@
       <c r="L94" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M94" s="2"/>
-      <c r="N94" s="2"/>
+      <c r="M94" t="s">
+        <v>770</v>
+      </c>
+      <c r="N94" t="s">
+        <v>770</v>
+      </c>
       <c r="P94" t="s">
         <v>23</v>
       </c>
@@ -6563,8 +6931,12 @@
       <c r="L95" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M95" s="2"/>
-      <c r="N95" s="2"/>
+      <c r="M95" t="s">
+        <v>770</v>
+      </c>
+      <c r="N95" t="s">
+        <v>770</v>
+      </c>
       <c r="P95" t="s">
         <v>23</v>
       </c>
@@ -6603,8 +6975,12 @@
       <c r="L96" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M96" s="2"/>
-      <c r="N96" s="2"/>
+      <c r="M96" t="s">
+        <v>770</v>
+      </c>
+      <c r="N96" t="s">
+        <v>770</v>
+      </c>
       <c r="P96" t="s">
         <v>23</v>
       </c>
@@ -6643,8 +7019,12 @@
       <c r="L97" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M97" s="2"/>
-      <c r="N97" s="2"/>
+      <c r="M97" t="s">
+        <v>770</v>
+      </c>
+      <c r="N97" t="s">
+        <v>770</v>
+      </c>
       <c r="P97" t="s">
         <v>23</v>
       </c>
@@ -6683,8 +7063,12 @@
       <c r="L98" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M98" s="2"/>
-      <c r="N98" s="2"/>
+      <c r="M98" t="s">
+        <v>770</v>
+      </c>
+      <c r="N98" t="s">
+        <v>770</v>
+      </c>
       <c r="P98" t="s">
         <v>23</v>
       </c>
@@ -6723,8 +7107,12 @@
       <c r="L99" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M99" s="2"/>
-      <c r="N99" s="2"/>
+      <c r="M99" t="s">
+        <v>770</v>
+      </c>
+      <c r="N99" t="s">
+        <v>770</v>
+      </c>
       <c r="P99" t="s">
         <v>23</v>
       </c>
@@ -6763,8 +7151,12 @@
       <c r="L100" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M100" s="2"/>
-      <c r="N100" s="2"/>
+      <c r="M100" t="s">
+        <v>770</v>
+      </c>
+      <c r="N100" t="s">
+        <v>770</v>
+      </c>
       <c r="P100" t="s">
         <v>23</v>
       </c>
@@ -6803,8 +7195,12 @@
       <c r="L101" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M101" s="2"/>
-      <c r="N101" s="2"/>
+      <c r="M101" t="s">
+        <v>770</v>
+      </c>
+      <c r="N101" t="s">
+        <v>770</v>
+      </c>
       <c r="P101" t="s">
         <v>23</v>
       </c>
@@ -6843,8 +7239,12 @@
       <c r="L102" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M102" s="2"/>
-      <c r="N102" s="2"/>
+      <c r="M102" t="s">
+        <v>770</v>
+      </c>
+      <c r="N102" t="s">
+        <v>770</v>
+      </c>
       <c r="P102" t="s">
         <v>23</v>
       </c>
@@ -6883,8 +7283,12 @@
       <c r="L103" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M103" s="2"/>
-      <c r="N103" s="2"/>
+      <c r="M103" t="s">
+        <v>770</v>
+      </c>
+      <c r="N103" t="s">
+        <v>770</v>
+      </c>
       <c r="P103" t="s">
         <v>23</v>
       </c>
@@ -6923,8 +7327,12 @@
       <c r="L104" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M104" s="2"/>
-      <c r="N104" s="2"/>
+      <c r="M104" t="s">
+        <v>770</v>
+      </c>
+      <c r="N104" t="s">
+        <v>770</v>
+      </c>
       <c r="P104" t="s">
         <v>23</v>
       </c>
@@ -6963,8 +7371,12 @@
       <c r="L105" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M105" s="2"/>
-      <c r="N105" s="2"/>
+      <c r="M105" t="s">
+        <v>770</v>
+      </c>
+      <c r="N105" t="s">
+        <v>770</v>
+      </c>
       <c r="P105" t="s">
         <v>23</v>
       </c>
@@ -7003,8 +7415,12 @@
       <c r="L106" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M106" s="2"/>
-      <c r="N106" s="2"/>
+      <c r="M106" t="s">
+        <v>770</v>
+      </c>
+      <c r="N106" t="s">
+        <v>770</v>
+      </c>
       <c r="P106" t="s">
         <v>23</v>
       </c>
@@ -7043,8 +7459,12 @@
       <c r="L107" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M107" s="2"/>
-      <c r="N107" s="2"/>
+      <c r="M107" t="s">
+        <v>770</v>
+      </c>
+      <c r="N107" t="s">
+        <v>770</v>
+      </c>
       <c r="P107" t="s">
         <v>23</v>
       </c>
@@ -7083,8 +7503,12 @@
       <c r="L108" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M108" s="2"/>
-      <c r="N108" s="2"/>
+      <c r="M108" t="s">
+        <v>770</v>
+      </c>
+      <c r="N108" t="s">
+        <v>770</v>
+      </c>
       <c r="P108" t="s">
         <v>23</v>
       </c>
@@ -7123,8 +7547,12 @@
       <c r="L109" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M109" s="2"/>
-      <c r="N109" s="2"/>
+      <c r="M109" t="s">
+        <v>770</v>
+      </c>
+      <c r="N109" t="s">
+        <v>770</v>
+      </c>
       <c r="P109" t="s">
         <v>23</v>
       </c>
@@ -7163,8 +7591,12 @@
       <c r="L110" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M110" s="2"/>
-      <c r="N110" s="2"/>
+      <c r="M110" t="s">
+        <v>770</v>
+      </c>
+      <c r="N110" t="s">
+        <v>770</v>
+      </c>
       <c r="P110" t="s">
         <v>23</v>
       </c>
@@ -7203,8 +7635,12 @@
       <c r="L111" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M111" s="2"/>
-      <c r="N111" s="2"/>
+      <c r="M111" t="s">
+        <v>770</v>
+      </c>
+      <c r="N111" t="s">
+        <v>770</v>
+      </c>
       <c r="P111" t="s">
         <v>23</v>
       </c>
@@ -7243,8 +7679,12 @@
       <c r="L112" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M112" s="2"/>
-      <c r="N112" s="2"/>
+      <c r="M112" t="s">
+        <v>770</v>
+      </c>
+      <c r="N112" t="s">
+        <v>770</v>
+      </c>
       <c r="P112" t="s">
         <v>23</v>
       </c>
@@ -7283,8 +7723,12 @@
       <c r="L113" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M113" s="2"/>
-      <c r="N113" s="2"/>
+      <c r="M113" t="s">
+        <v>770</v>
+      </c>
+      <c r="N113" t="s">
+        <v>770</v>
+      </c>
       <c r="P113" t="s">
         <v>23</v>
       </c>
@@ -7323,8 +7767,12 @@
       <c r="L114" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M114" s="2"/>
-      <c r="N114" s="2"/>
+      <c r="M114" t="s">
+        <v>770</v>
+      </c>
+      <c r="N114" t="s">
+        <v>770</v>
+      </c>
       <c r="P114" t="s">
         <v>23</v>
       </c>
@@ -7363,8 +7811,12 @@
       <c r="L115" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M115" s="2"/>
-      <c r="N115" s="2"/>
+      <c r="M115" t="s">
+        <v>770</v>
+      </c>
+      <c r="N115" t="s">
+        <v>770</v>
+      </c>
       <c r="P115" t="s">
         <v>23</v>
       </c>
@@ -7403,8 +7855,12 @@
       <c r="L116" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M116" s="2"/>
-      <c r="N116" s="2"/>
+      <c r="M116" t="s">
+        <v>770</v>
+      </c>
+      <c r="N116" t="s">
+        <v>770</v>
+      </c>
       <c r="P116" t="s">
         <v>23</v>
       </c>
@@ -7443,8 +7899,12 @@
       <c r="L117" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M117" s="2"/>
-      <c r="N117" s="2"/>
+      <c r="M117" t="s">
+        <v>770</v>
+      </c>
+      <c r="N117" t="s">
+        <v>770</v>
+      </c>
       <c r="P117" t="s">
         <v>23</v>
       </c>
@@ -7483,8 +7943,12 @@
       <c r="L118" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M118" s="2"/>
-      <c r="N118" s="2"/>
+      <c r="M118" t="s">
+        <v>770</v>
+      </c>
+      <c r="N118" t="s">
+        <v>770</v>
+      </c>
       <c r="P118" t="s">
         <v>23</v>
       </c>
@@ -7523,8 +7987,12 @@
       <c r="L119" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M119" s="2"/>
-      <c r="N119" s="2"/>
+      <c r="M119" t="s">
+        <v>770</v>
+      </c>
+      <c r="N119" t="s">
+        <v>770</v>
+      </c>
       <c r="P119" t="s">
         <v>23</v>
       </c>
@@ -7563,8 +8031,12 @@
       <c r="L120" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M120" s="2"/>
-      <c r="N120" s="2"/>
+      <c r="M120" t="s">
+        <v>770</v>
+      </c>
+      <c r="N120" t="s">
+        <v>770</v>
+      </c>
       <c r="P120" t="s">
         <v>23</v>
       </c>
@@ -7603,8 +8075,12 @@
       <c r="L121" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M121" s="2"/>
-      <c r="N121" s="2"/>
+      <c r="M121" t="s">
+        <v>770</v>
+      </c>
+      <c r="N121" t="s">
+        <v>770</v>
+      </c>
       <c r="P121" t="s">
         <v>23</v>
       </c>
@@ -7643,8 +8119,12 @@
       <c r="L122" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M122" s="2"/>
-      <c r="N122" s="2"/>
+      <c r="M122" t="s">
+        <v>770</v>
+      </c>
+      <c r="N122" t="s">
+        <v>770</v>
+      </c>
       <c r="P122" t="s">
         <v>23</v>
       </c>
@@ -7683,8 +8163,12 @@
       <c r="L123" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M123" s="2"/>
-      <c r="N123" s="2"/>
+      <c r="M123" t="s">
+        <v>770</v>
+      </c>
+      <c r="N123" t="s">
+        <v>770</v>
+      </c>
       <c r="P123" t="s">
         <v>23</v>
       </c>
@@ -7723,8 +8207,12 @@
       <c r="L124" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M124" s="2"/>
-      <c r="N124" s="2"/>
+      <c r="M124" t="s">
+        <v>770</v>
+      </c>
+      <c r="N124" t="s">
+        <v>770</v>
+      </c>
       <c r="P124" t="s">
         <v>23</v>
       </c>
@@ -7763,8 +8251,12 @@
       <c r="L125" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M125" s="2"/>
-      <c r="N125" s="2"/>
+      <c r="M125" t="s">
+        <v>770</v>
+      </c>
+      <c r="N125" t="s">
+        <v>770</v>
+      </c>
       <c r="P125" t="s">
         <v>23</v>
       </c>
@@ -7803,8 +8295,12 @@
       <c r="L126" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M126" s="2"/>
-      <c r="N126" s="2"/>
+      <c r="M126" t="s">
+        <v>770</v>
+      </c>
+      <c r="N126" t="s">
+        <v>770</v>
+      </c>
       <c r="P126" t="s">
         <v>23</v>
       </c>
@@ -7843,8 +8339,12 @@
       <c r="L127" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M127" s="2"/>
-      <c r="N127" s="2"/>
+      <c r="M127" t="s">
+        <v>770</v>
+      </c>
+      <c r="N127" t="s">
+        <v>770</v>
+      </c>
       <c r="P127" t="s">
         <v>23</v>
       </c>
@@ -7883,8 +8383,12 @@
       <c r="L128" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M128" s="2"/>
-      <c r="N128" s="2"/>
+      <c r="M128" t="s">
+        <v>770</v>
+      </c>
+      <c r="N128" t="s">
+        <v>770</v>
+      </c>
       <c r="P128" t="s">
         <v>23</v>
       </c>
@@ -7923,8 +8427,12 @@
       <c r="L129" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M129" s="2"/>
-      <c r="N129" s="2"/>
+      <c r="M129" t="s">
+        <v>770</v>
+      </c>
+      <c r="N129" t="s">
+        <v>770</v>
+      </c>
       <c r="P129" t="s">
         <v>23</v>
       </c>
@@ -7963,8 +8471,12 @@
       <c r="L130" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M130" s="2"/>
-      <c r="N130" s="2"/>
+      <c r="M130" t="s">
+        <v>770</v>
+      </c>
+      <c r="N130" t="s">
+        <v>770</v>
+      </c>
       <c r="P130" t="s">
         <v>23</v>
       </c>
@@ -8003,8 +8515,12 @@
       <c r="L131" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M131" s="2"/>
-      <c r="N131" s="2"/>
+      <c r="M131" t="s">
+        <v>770</v>
+      </c>
+      <c r="N131" t="s">
+        <v>770</v>
+      </c>
       <c r="P131" t="s">
         <v>23</v>
       </c>
@@ -8043,8 +8559,12 @@
       <c r="L132" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M132" s="2"/>
-      <c r="N132" s="2"/>
+      <c r="M132" t="s">
+        <v>770</v>
+      </c>
+      <c r="N132" t="s">
+        <v>770</v>
+      </c>
       <c r="P132" t="s">
         <v>23</v>
       </c>
@@ -8083,8 +8603,12 @@
       <c r="L133" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M133" s="2"/>
-      <c r="N133" s="2"/>
+      <c r="M133" t="s">
+        <v>770</v>
+      </c>
+      <c r="N133" t="s">
+        <v>770</v>
+      </c>
       <c r="P133" t="s">
         <v>23</v>
       </c>
@@ -8123,8 +8647,12 @@
       <c r="L134" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M134" s="2"/>
-      <c r="N134" s="2"/>
+      <c r="M134" t="s">
+        <v>770</v>
+      </c>
+      <c r="N134" t="s">
+        <v>770</v>
+      </c>
       <c r="P134" t="s">
         <v>23</v>
       </c>
@@ -8163,8 +8691,12 @@
       <c r="L135" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M135" s="2"/>
-      <c r="N135" s="2"/>
+      <c r="M135" t="s">
+        <v>770</v>
+      </c>
+      <c r="N135" t="s">
+        <v>770</v>
+      </c>
       <c r="P135" t="s">
         <v>23</v>
       </c>
@@ -8203,8 +8735,12 @@
       <c r="L136" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M136" s="2"/>
-      <c r="N136" s="2"/>
+      <c r="M136" t="s">
+        <v>770</v>
+      </c>
+      <c r="N136" t="s">
+        <v>770</v>
+      </c>
       <c r="P136" t="s">
         <v>23</v>
       </c>
@@ -8243,8 +8779,12 @@
       <c r="L137" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M137" s="2"/>
-      <c r="N137" s="2"/>
+      <c r="M137" t="s">
+        <v>770</v>
+      </c>
+      <c r="N137" t="s">
+        <v>770</v>
+      </c>
       <c r="P137" t="s">
         <v>23</v>
       </c>
@@ -8283,8 +8823,12 @@
       <c r="L138" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M138" s="2"/>
-      <c r="N138" s="2"/>
+      <c r="M138" t="s">
+        <v>770</v>
+      </c>
+      <c r="N138" t="s">
+        <v>770</v>
+      </c>
       <c r="P138" t="s">
         <v>23</v>
       </c>
@@ -8323,8 +8867,12 @@
       <c r="L139" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M139" s="2"/>
-      <c r="N139" s="2"/>
+      <c r="M139" t="s">
+        <v>770</v>
+      </c>
+      <c r="N139" t="s">
+        <v>770</v>
+      </c>
       <c r="P139" t="s">
         <v>23</v>
       </c>
@@ -8363,8 +8911,12 @@
       <c r="L140" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M140" s="2"/>
-      <c r="N140" s="2"/>
+      <c r="M140" t="s">
+        <v>770</v>
+      </c>
+      <c r="N140" t="s">
+        <v>770</v>
+      </c>
       <c r="P140" t="s">
         <v>23</v>
       </c>
@@ -8403,8 +8955,12 @@
       <c r="L141" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M141" s="2"/>
-      <c r="N141" s="2"/>
+      <c r="M141" t="s">
+        <v>770</v>
+      </c>
+      <c r="N141" t="s">
+        <v>770</v>
+      </c>
       <c r="P141" t="s">
         <v>23</v>
       </c>
@@ -8443,8 +8999,12 @@
       <c r="L142" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M142" s="2"/>
-      <c r="N142" s="2"/>
+      <c r="M142" t="s">
+        <v>770</v>
+      </c>
+      <c r="N142" t="s">
+        <v>770</v>
+      </c>
       <c r="P142" t="s">
         <v>23</v>
       </c>
@@ -8483,8 +9043,12 @@
       <c r="L143" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M143" s="2"/>
-      <c r="N143" s="2"/>
+      <c r="M143" t="s">
+        <v>770</v>
+      </c>
+      <c r="N143" t="s">
+        <v>770</v>
+      </c>
       <c r="P143" t="s">
         <v>23</v>
       </c>
@@ -8523,8 +9087,12 @@
       <c r="L144" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M144" s="2"/>
-      <c r="N144" s="2"/>
+      <c r="M144" t="s">
+        <v>770</v>
+      </c>
+      <c r="N144" t="s">
+        <v>770</v>
+      </c>
       <c r="P144" t="s">
         <v>23</v>
       </c>
@@ -8563,8 +9131,12 @@
       <c r="L145" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M145" s="2"/>
-      <c r="N145" s="2"/>
+      <c r="M145" t="s">
+        <v>770</v>
+      </c>
+      <c r="N145" t="s">
+        <v>770</v>
+      </c>
       <c r="P145" t="s">
         <v>23</v>
       </c>
@@ -8603,8 +9175,12 @@
       <c r="L146" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M146" s="2"/>
-      <c r="N146" s="2"/>
+      <c r="M146" t="s">
+        <v>770</v>
+      </c>
+      <c r="N146" t="s">
+        <v>770</v>
+      </c>
       <c r="P146" t="s">
         <v>23</v>
       </c>
@@ -8643,8 +9219,12 @@
       <c r="L147" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M147" s="2"/>
-      <c r="N147" s="2"/>
+      <c r="M147" t="s">
+        <v>770</v>
+      </c>
+      <c r="N147" t="s">
+        <v>770</v>
+      </c>
       <c r="P147" t="s">
         <v>23</v>
       </c>
@@ -8683,8 +9263,12 @@
       <c r="L148" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M148" s="2"/>
-      <c r="N148" s="2"/>
+      <c r="M148" t="s">
+        <v>770</v>
+      </c>
+      <c r="N148" t="s">
+        <v>770</v>
+      </c>
       <c r="P148" t="s">
         <v>23</v>
       </c>
@@ -8723,8 +9307,12 @@
       <c r="L149" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M149" s="2"/>
-      <c r="N149" s="2"/>
+      <c r="M149" t="s">
+        <v>770</v>
+      </c>
+      <c r="N149" t="s">
+        <v>770</v>
+      </c>
       <c r="P149" t="s">
         <v>23</v>
       </c>
@@ -8763,8 +9351,12 @@
       <c r="L150" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M150" s="2"/>
-      <c r="N150" s="2"/>
+      <c r="M150" t="s">
+        <v>770</v>
+      </c>
+      <c r="N150" t="s">
+        <v>770</v>
+      </c>
       <c r="P150" t="s">
         <v>23</v>
       </c>
@@ -8803,8 +9395,12 @@
       <c r="L151" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M151" s="2"/>
-      <c r="N151" s="2"/>
+      <c r="M151" t="s">
+        <v>770</v>
+      </c>
+      <c r="N151" t="s">
+        <v>770</v>
+      </c>
       <c r="P151" t="s">
         <v>23</v>
       </c>
@@ -8843,8 +9439,12 @@
       <c r="L152" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M152" s="2"/>
-      <c r="N152" s="2"/>
+      <c r="M152" t="s">
+        <v>770</v>
+      </c>
+      <c r="N152" t="s">
+        <v>770</v>
+      </c>
       <c r="P152" t="s">
         <v>23</v>
       </c>
@@ -8883,8 +9483,12 @@
       <c r="L153" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M153" s="2"/>
-      <c r="N153" s="2"/>
+      <c r="M153" t="s">
+        <v>770</v>
+      </c>
+      <c r="N153" t="s">
+        <v>770</v>
+      </c>
       <c r="P153" t="s">
         <v>23</v>
       </c>
@@ -8923,8 +9527,12 @@
       <c r="L154" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M154" s="2"/>
-      <c r="N154" s="2"/>
+      <c r="M154" t="s">
+        <v>770</v>
+      </c>
+      <c r="N154" t="s">
+        <v>770</v>
+      </c>
       <c r="P154" t="s">
         <v>23</v>
       </c>
@@ -8963,8 +9571,12 @@
       <c r="L155" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M155" s="2"/>
-      <c r="N155" s="2"/>
+      <c r="M155" t="s">
+        <v>770</v>
+      </c>
+      <c r="N155" t="s">
+        <v>770</v>
+      </c>
       <c r="P155" t="s">
         <v>23</v>
       </c>
@@ -9003,8 +9615,12 @@
       <c r="L156" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M156" s="2"/>
-      <c r="N156" s="2"/>
+      <c r="M156" t="s">
+        <v>770</v>
+      </c>
+      <c r="N156" t="s">
+        <v>770</v>
+      </c>
       <c r="P156" t="s">
         <v>23</v>
       </c>
@@ -9043,8 +9659,12 @@
       <c r="L157" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M157" s="2"/>
-      <c r="N157" s="2"/>
+      <c r="M157" t="s">
+        <v>770</v>
+      </c>
+      <c r="N157" t="s">
+        <v>770</v>
+      </c>
       <c r="P157" t="s">
         <v>23</v>
       </c>
@@ -9083,8 +9703,12 @@
       <c r="L158" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M158" s="2"/>
-      <c r="N158" s="2"/>
+      <c r="M158" t="s">
+        <v>770</v>
+      </c>
+      <c r="N158" t="s">
+        <v>770</v>
+      </c>
       <c r="P158" t="s">
         <v>23</v>
       </c>
@@ -9123,8 +9747,12 @@
       <c r="L159" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M159" s="2"/>
-      <c r="N159" s="2"/>
+      <c r="M159" t="s">
+        <v>770</v>
+      </c>
+      <c r="N159" t="s">
+        <v>770</v>
+      </c>
       <c r="P159" t="s">
         <v>23</v>
       </c>
@@ -9163,8 +9791,12 @@
       <c r="L160" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M160" s="2"/>
-      <c r="N160" s="2"/>
+      <c r="M160" t="s">
+        <v>770</v>
+      </c>
+      <c r="N160" t="s">
+        <v>770</v>
+      </c>
       <c r="P160" t="s">
         <v>23</v>
       </c>
@@ -9203,8 +9835,12 @@
       <c r="L161" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M161" s="2"/>
-      <c r="N161" s="2"/>
+      <c r="M161" t="s">
+        <v>770</v>
+      </c>
+      <c r="N161" t="s">
+        <v>770</v>
+      </c>
       <c r="P161" t="s">
         <v>23</v>
       </c>
@@ -9243,8 +9879,12 @@
       <c r="L162" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M162" s="2"/>
-      <c r="N162" s="2"/>
+      <c r="M162" t="s">
+        <v>770</v>
+      </c>
+      <c r="N162" t="s">
+        <v>770</v>
+      </c>
       <c r="P162" t="s">
         <v>23</v>
       </c>
@@ -9283,8 +9923,12 @@
       <c r="L163" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M163" s="2"/>
-      <c r="N163" s="2"/>
+      <c r="M163" t="s">
+        <v>770</v>
+      </c>
+      <c r="N163" t="s">
+        <v>770</v>
+      </c>
       <c r="P163" t="s">
         <v>23</v>
       </c>
@@ -9323,8 +9967,12 @@
       <c r="L164" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M164" s="2"/>
-      <c r="N164" s="2"/>
+      <c r="M164" t="s">
+        <v>770</v>
+      </c>
+      <c r="N164" t="s">
+        <v>770</v>
+      </c>
       <c r="P164" t="s">
         <v>23</v>
       </c>
@@ -9363,8 +10011,12 @@
       <c r="L165" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M165" s="2"/>
-      <c r="N165" s="2"/>
+      <c r="M165" t="s">
+        <v>770</v>
+      </c>
+      <c r="N165" t="s">
+        <v>770</v>
+      </c>
       <c r="P165" t="s">
         <v>23</v>
       </c>
@@ -9403,8 +10055,12 @@
       <c r="L166" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M166" s="2"/>
-      <c r="N166" s="2"/>
+      <c r="M166" t="s">
+        <v>770</v>
+      </c>
+      <c r="N166" t="s">
+        <v>770</v>
+      </c>
       <c r="P166" t="s">
         <v>23</v>
       </c>
@@ -9443,8 +10099,12 @@
       <c r="L167" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M167" s="2"/>
-      <c r="N167" s="2"/>
+      <c r="M167" t="s">
+        <v>770</v>
+      </c>
+      <c r="N167" t="s">
+        <v>770</v>
+      </c>
       <c r="P167" t="s">
         <v>23</v>
       </c>
@@ -9483,8 +10143,12 @@
       <c r="L168" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M168" s="2"/>
-      <c r="N168" s="2"/>
+      <c r="M168" t="s">
+        <v>770</v>
+      </c>
+      <c r="N168" t="s">
+        <v>770</v>
+      </c>
       <c r="P168" t="s">
         <v>23</v>
       </c>
@@ -9523,8 +10187,12 @@
       <c r="L169" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M169" s="2"/>
-      <c r="N169" s="2"/>
+      <c r="M169" t="s">
+        <v>770</v>
+      </c>
+      <c r="N169" t="s">
+        <v>770</v>
+      </c>
       <c r="P169" t="s">
         <v>23</v>
       </c>
@@ -9563,8 +10231,12 @@
       <c r="L170" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M170" s="2"/>
-      <c r="N170" s="2"/>
+      <c r="M170" t="s">
+        <v>770</v>
+      </c>
+      <c r="N170" t="s">
+        <v>770</v>
+      </c>
       <c r="P170" t="s">
         <v>23</v>
       </c>
@@ -9603,8 +10275,12 @@
       <c r="L171" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M171" s="2"/>
-      <c r="N171" s="2"/>
+      <c r="M171" t="s">
+        <v>770</v>
+      </c>
+      <c r="N171" t="s">
+        <v>770</v>
+      </c>
       <c r="P171" t="s">
         <v>23</v>
       </c>
@@ -9643,8 +10319,12 @@
       <c r="L172" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M172" s="2"/>
-      <c r="N172" s="2"/>
+      <c r="M172" t="s">
+        <v>770</v>
+      </c>
+      <c r="N172" t="s">
+        <v>770</v>
+      </c>
       <c r="P172" t="s">
         <v>23</v>
       </c>
@@ -9683,8 +10363,12 @@
       <c r="L173" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M173" s="2"/>
-      <c r="N173" s="2"/>
+      <c r="M173" t="s">
+        <v>770</v>
+      </c>
+      <c r="N173" t="s">
+        <v>770</v>
+      </c>
       <c r="P173" t="s">
         <v>23</v>
       </c>
@@ -9723,8 +10407,12 @@
       <c r="L174" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M174" s="2"/>
-      <c r="N174" s="2"/>
+      <c r="M174" t="s">
+        <v>770</v>
+      </c>
+      <c r="N174" t="s">
+        <v>770</v>
+      </c>
       <c r="P174" t="s">
         <v>23</v>
       </c>
@@ -9763,8 +10451,12 @@
       <c r="L175" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M175" s="2"/>
-      <c r="N175" s="2"/>
+      <c r="M175" t="s">
+        <v>770</v>
+      </c>
+      <c r="N175" t="s">
+        <v>770</v>
+      </c>
       <c r="P175" t="s">
         <v>23</v>
       </c>
@@ -9803,8 +10495,12 @@
       <c r="L176" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M176" s="2"/>
-      <c r="N176" s="2"/>
+      <c r="M176" t="s">
+        <v>770</v>
+      </c>
+      <c r="N176" t="s">
+        <v>770</v>
+      </c>
       <c r="P176" t="s">
         <v>23</v>
       </c>
@@ -9843,8 +10539,12 @@
       <c r="L177" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M177" s="2"/>
-      <c r="N177" s="2"/>
+      <c r="M177" t="s">
+        <v>770</v>
+      </c>
+      <c r="N177" t="s">
+        <v>770</v>
+      </c>
       <c r="P177" t="s">
         <v>23</v>
       </c>
@@ -9883,8 +10583,12 @@
       <c r="L178" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M178" s="2"/>
-      <c r="N178" s="2"/>
+      <c r="M178" t="s">
+        <v>770</v>
+      </c>
+      <c r="N178" t="s">
+        <v>770</v>
+      </c>
       <c r="P178" t="s">
         <v>23</v>
       </c>
@@ -9923,8 +10627,12 @@
       <c r="L179" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M179" s="2"/>
-      <c r="N179" s="2"/>
+      <c r="M179" t="s">
+        <v>770</v>
+      </c>
+      <c r="N179" t="s">
+        <v>770</v>
+      </c>
       <c r="P179" t="s">
         <v>23</v>
       </c>
@@ -9963,8 +10671,12 @@
       <c r="L180" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M180" s="2"/>
-      <c r="N180" s="2"/>
+      <c r="M180" t="s">
+        <v>770</v>
+      </c>
+      <c r="N180" t="s">
+        <v>770</v>
+      </c>
       <c r="P180" t="s">
         <v>23</v>
       </c>
@@ -10003,8 +10715,12 @@
       <c r="L181" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M181" s="2"/>
-      <c r="N181" s="2"/>
+      <c r="M181" t="s">
+        <v>770</v>
+      </c>
+      <c r="N181" t="s">
+        <v>770</v>
+      </c>
       <c r="P181" t="s">
         <v>23</v>
       </c>
@@ -10043,8 +10759,12 @@
       <c r="L182" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M182" s="2"/>
-      <c r="N182" s="2"/>
+      <c r="M182" t="s">
+        <v>770</v>
+      </c>
+      <c r="N182" t="s">
+        <v>770</v>
+      </c>
       <c r="P182" t="s">
         <v>23</v>
       </c>
@@ -10083,8 +10803,12 @@
       <c r="L183" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M183" s="2"/>
-      <c r="N183" s="2"/>
+      <c r="M183" t="s">
+        <v>770</v>
+      </c>
+      <c r="N183" t="s">
+        <v>770</v>
+      </c>
       <c r="P183" t="s">
         <v>23</v>
       </c>
@@ -10123,8 +10847,12 @@
       <c r="L184" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M184" s="2"/>
-      <c r="N184" s="2"/>
+      <c r="M184" t="s">
+        <v>770</v>
+      </c>
+      <c r="N184" t="s">
+        <v>770</v>
+      </c>
       <c r="P184" t="s">
         <v>23</v>
       </c>
@@ -10163,8 +10891,12 @@
       <c r="L185" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M185" s="2"/>
-      <c r="N185" s="2"/>
+      <c r="M185" t="s">
+        <v>770</v>
+      </c>
+      <c r="N185" t="s">
+        <v>770</v>
+      </c>
       <c r="P185" t="s">
         <v>23</v>
       </c>
@@ -10203,8 +10935,12 @@
       <c r="L186" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M186" s="2"/>
-      <c r="N186" s="2"/>
+      <c r="M186" t="s">
+        <v>770</v>
+      </c>
+      <c r="N186" t="s">
+        <v>770</v>
+      </c>
       <c r="P186" t="s">
         <v>23</v>
       </c>
@@ -10243,8 +10979,12 @@
       <c r="L187" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M187" s="2"/>
-      <c r="N187" s="2"/>
+      <c r="M187" t="s">
+        <v>770</v>
+      </c>
+      <c r="N187" t="s">
+        <v>770</v>
+      </c>
       <c r="P187" t="s">
         <v>23</v>
       </c>
@@ -10283,8 +11023,12 @@
       <c r="L188" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M188" s="2"/>
-      <c r="N188" s="2"/>
+      <c r="M188" t="s">
+        <v>770</v>
+      </c>
+      <c r="N188" t="s">
+        <v>770</v>
+      </c>
       <c r="P188" t="s">
         <v>23</v>
       </c>
@@ -10323,8 +11067,12 @@
       <c r="L189" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M189" s="2"/>
-      <c r="N189" s="2"/>
+      <c r="M189" t="s">
+        <v>770</v>
+      </c>
+      <c r="N189" t="s">
+        <v>770</v>
+      </c>
       <c r="P189" t="s">
         <v>23</v>
       </c>
@@ -10363,8 +11111,12 @@
       <c r="L190" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M190" s="2"/>
-      <c r="N190" s="2"/>
+      <c r="M190" t="s">
+        <v>770</v>
+      </c>
+      <c r="N190" t="s">
+        <v>770</v>
+      </c>
       <c r="P190" t="s">
         <v>23</v>
       </c>
@@ -10403,8 +11155,12 @@
       <c r="L191" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M191" s="2"/>
-      <c r="N191" s="2"/>
+      <c r="M191" t="s">
+        <v>770</v>
+      </c>
+      <c r="N191" t="s">
+        <v>770</v>
+      </c>
       <c r="P191" t="s">
         <v>23</v>
       </c>
@@ -10443,8 +11199,12 @@
       <c r="L192" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M192" s="2"/>
-      <c r="N192" s="2"/>
+      <c r="M192" t="s">
+        <v>770</v>
+      </c>
+      <c r="N192" t="s">
+        <v>770</v>
+      </c>
       <c r="P192" t="s">
         <v>23</v>
       </c>
@@ -10483,8 +11243,12 @@
       <c r="L193" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M193" s="2"/>
-      <c r="N193" s="2"/>
+      <c r="M193" t="s">
+        <v>770</v>
+      </c>
+      <c r="N193" t="s">
+        <v>770</v>
+      </c>
       <c r="P193" t="s">
         <v>23</v>
       </c>
@@ -10523,8 +11287,12 @@
       <c r="L194" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M194" s="2"/>
-      <c r="N194" s="2"/>
+      <c r="M194" t="s">
+        <v>770</v>
+      </c>
+      <c r="N194" t="s">
+        <v>770</v>
+      </c>
       <c r="P194" t="s">
         <v>23</v>
       </c>
@@ -10563,8 +11331,12 @@
       <c r="L195" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M195" s="2"/>
-      <c r="N195" s="2"/>
+      <c r="M195" t="s">
+        <v>770</v>
+      </c>
+      <c r="N195" t="s">
+        <v>770</v>
+      </c>
       <c r="P195" t="s">
         <v>23</v>
       </c>
@@ -10603,8 +11375,12 @@
       <c r="L196" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M196" s="2"/>
-      <c r="N196" s="2"/>
+      <c r="M196" t="s">
+        <v>770</v>
+      </c>
+      <c r="N196" t="s">
+        <v>770</v>
+      </c>
       <c r="P196" t="s">
         <v>23</v>
       </c>
@@ -10643,8 +11419,12 @@
       <c r="L197" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M197" s="2"/>
-      <c r="N197" s="2"/>
+      <c r="M197" t="s">
+        <v>770</v>
+      </c>
+      <c r="N197" t="s">
+        <v>770</v>
+      </c>
       <c r="P197" t="s">
         <v>23</v>
       </c>
@@ -10683,8 +11463,12 @@
       <c r="L198" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M198" s="2"/>
-      <c r="N198" s="2"/>
+      <c r="M198" t="s">
+        <v>770</v>
+      </c>
+      <c r="N198" t="s">
+        <v>770</v>
+      </c>
       <c r="P198" t="s">
         <v>23</v>
       </c>
@@ -10723,8 +11507,12 @@
       <c r="L199" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M199" s="2"/>
-      <c r="N199" s="2"/>
+      <c r="M199" t="s">
+        <v>770</v>
+      </c>
+      <c r="N199" t="s">
+        <v>770</v>
+      </c>
       <c r="P199" t="s">
         <v>23</v>
       </c>
@@ -10763,8 +11551,12 @@
       <c r="L200" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M200" s="2"/>
-      <c r="N200" s="2"/>
+      <c r="M200" t="s">
+        <v>770</v>
+      </c>
+      <c r="N200" t="s">
+        <v>770</v>
+      </c>
       <c r="P200" t="s">
         <v>23</v>
       </c>
@@ -10803,8 +11595,12 @@
       <c r="L201" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M201" s="2"/>
-      <c r="N201" s="2"/>
+      <c r="M201" t="s">
+        <v>770</v>
+      </c>
+      <c r="N201" t="s">
+        <v>770</v>
+      </c>
       <c r="P201" t="s">
         <v>23</v>
       </c>
@@ -10843,8 +11639,12 @@
       <c r="L202" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M202" s="2"/>
-      <c r="N202" s="2"/>
+      <c r="M202" t="s">
+        <v>770</v>
+      </c>
+      <c r="N202" t="s">
+        <v>770</v>
+      </c>
       <c r="P202" t="s">
         <v>23</v>
       </c>
@@ -10883,8 +11683,12 @@
       <c r="L203" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M203" s="2"/>
-      <c r="N203" s="2"/>
+      <c r="M203" t="s">
+        <v>770</v>
+      </c>
+      <c r="N203" t="s">
+        <v>770</v>
+      </c>
       <c r="P203" t="s">
         <v>23</v>
       </c>
@@ -10923,8 +11727,12 @@
       <c r="L204" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M204" s="2"/>
-      <c r="N204" s="2"/>
+      <c r="M204" t="s">
+        <v>770</v>
+      </c>
+      <c r="N204" t="s">
+        <v>770</v>
+      </c>
       <c r="P204" t="s">
         <v>23</v>
       </c>
@@ -10963,8 +11771,12 @@
       <c r="L205" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M205" s="2"/>
-      <c r="N205" s="2"/>
+      <c r="M205" t="s">
+        <v>770</v>
+      </c>
+      <c r="N205" t="s">
+        <v>770</v>
+      </c>
       <c r="P205" t="s">
         <v>23</v>
       </c>
@@ -11003,8 +11815,12 @@
       <c r="L206" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M206" s="2"/>
-      <c r="N206" s="2"/>
+      <c r="M206" t="s">
+        <v>770</v>
+      </c>
+      <c r="N206" t="s">
+        <v>770</v>
+      </c>
       <c r="P206" t="s">
         <v>23</v>
       </c>
@@ -11043,8 +11859,12 @@
       <c r="L207" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M207" s="2"/>
-      <c r="N207" s="2"/>
+      <c r="M207" t="s">
+        <v>770</v>
+      </c>
+      <c r="N207" t="s">
+        <v>770</v>
+      </c>
       <c r="P207" t="s">
         <v>23</v>
       </c>
@@ -11083,8 +11903,12 @@
       <c r="L208" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M208" s="2"/>
-      <c r="N208" s="2"/>
+      <c r="M208" t="s">
+        <v>770</v>
+      </c>
+      <c r="N208" t="s">
+        <v>770</v>
+      </c>
       <c r="P208" t="s">
         <v>23</v>
       </c>
@@ -11123,8 +11947,12 @@
       <c r="L209" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M209" s="2"/>
-      <c r="N209" s="2"/>
+      <c r="M209" t="s">
+        <v>770</v>
+      </c>
+      <c r="N209" t="s">
+        <v>770</v>
+      </c>
       <c r="P209" t="s">
         <v>23</v>
       </c>
@@ -11163,8 +11991,12 @@
       <c r="L210" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M210" s="2"/>
-      <c r="N210" s="2"/>
+      <c r="M210" t="s">
+        <v>770</v>
+      </c>
+      <c r="N210" t="s">
+        <v>770</v>
+      </c>
       <c r="P210" t="s">
         <v>23</v>
       </c>
@@ -11203,8 +12035,12 @@
       <c r="L211" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M211" s="2"/>
-      <c r="N211" s="2"/>
+      <c r="M211" t="s">
+        <v>770</v>
+      </c>
+      <c r="N211" t="s">
+        <v>770</v>
+      </c>
       <c r="P211" t="s">
         <v>23</v>
       </c>
@@ -11243,8 +12079,12 @@
       <c r="L212" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M212" s="2"/>
-      <c r="N212" s="2"/>
+      <c r="M212" t="s">
+        <v>770</v>
+      </c>
+      <c r="N212" t="s">
+        <v>770</v>
+      </c>
       <c r="P212" t="s">
         <v>23</v>
       </c>
@@ -11283,8 +12123,12 @@
       <c r="L213" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M213" s="2"/>
-      <c r="N213" s="2"/>
+      <c r="M213" t="s">
+        <v>770</v>
+      </c>
+      <c r="N213" t="s">
+        <v>770</v>
+      </c>
       <c r="P213" t="s">
         <v>23</v>
       </c>
@@ -11323,8 +12167,12 @@
       <c r="L214" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M214" s="2"/>
-      <c r="N214" s="2"/>
+      <c r="M214" t="s">
+        <v>770</v>
+      </c>
+      <c r="N214" t="s">
+        <v>770</v>
+      </c>
       <c r="P214" t="s">
         <v>23</v>
       </c>
@@ -11363,8 +12211,12 @@
       <c r="L215" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M215" s="2"/>
-      <c r="N215" s="2"/>
+      <c r="M215" t="s">
+        <v>770</v>
+      </c>
+      <c r="N215" t="s">
+        <v>770</v>
+      </c>
       <c r="P215" t="s">
         <v>23</v>
       </c>
@@ -11403,8 +12255,12 @@
       <c r="L216" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M216" s="2"/>
-      <c r="N216" s="2"/>
+      <c r="M216" t="s">
+        <v>770</v>
+      </c>
+      <c r="N216" t="s">
+        <v>770</v>
+      </c>
       <c r="P216" t="s">
         <v>23</v>
       </c>
@@ -11443,8 +12299,12 @@
       <c r="L217" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M217" s="2"/>
-      <c r="N217" s="2"/>
+      <c r="M217" t="s">
+        <v>770</v>
+      </c>
+      <c r="N217" t="s">
+        <v>770</v>
+      </c>
       <c r="P217" t="s">
         <v>23</v>
       </c>
@@ -11483,8 +12343,12 @@
       <c r="L218" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M218" s="2"/>
-      <c r="N218" s="2"/>
+      <c r="M218" t="s">
+        <v>770</v>
+      </c>
+      <c r="N218" t="s">
+        <v>770</v>
+      </c>
       <c r="P218" t="s">
         <v>23</v>
       </c>
@@ -11523,8 +12387,12 @@
       <c r="L219" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M219" s="2"/>
-      <c r="N219" s="2"/>
+      <c r="M219" t="s">
+        <v>770</v>
+      </c>
+      <c r="N219" t="s">
+        <v>770</v>
+      </c>
       <c r="P219" t="s">
         <v>23</v>
       </c>
@@ -11563,8 +12431,12 @@
       <c r="L220" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M220" s="2"/>
-      <c r="N220" s="2"/>
+      <c r="M220" t="s">
+        <v>770</v>
+      </c>
+      <c r="N220" t="s">
+        <v>770</v>
+      </c>
       <c r="P220" t="s">
         <v>23</v>
       </c>
@@ -11603,8 +12475,12 @@
       <c r="L221" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M221" s="2"/>
-      <c r="N221" s="2"/>
+      <c r="M221" t="s">
+        <v>770</v>
+      </c>
+      <c r="N221" t="s">
+        <v>770</v>
+      </c>
       <c r="P221" t="s">
         <v>23</v>
       </c>
@@ -11643,8 +12519,12 @@
       <c r="L222" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M222" s="2"/>
-      <c r="N222" s="2"/>
+      <c r="M222" t="s">
+        <v>770</v>
+      </c>
+      <c r="N222" t="s">
+        <v>770</v>
+      </c>
       <c r="P222" t="s">
         <v>23</v>
       </c>
@@ -11683,8 +12563,12 @@
       <c r="L223" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M223" s="2"/>
-      <c r="N223" s="2"/>
+      <c r="M223" t="s">
+        <v>770</v>
+      </c>
+      <c r="N223" t="s">
+        <v>770</v>
+      </c>
       <c r="P223" t="s">
         <v>23</v>
       </c>
@@ -11723,8 +12607,12 @@
       <c r="L224" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M224" s="2"/>
-      <c r="N224" s="2"/>
+      <c r="M224" t="s">
+        <v>770</v>
+      </c>
+      <c r="N224" t="s">
+        <v>770</v>
+      </c>
       <c r="P224" t="s">
         <v>23</v>
       </c>
@@ -11763,8 +12651,12 @@
       <c r="L225" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M225" s="2"/>
-      <c r="N225" s="2"/>
+      <c r="M225" t="s">
+        <v>770</v>
+      </c>
+      <c r="N225" t="s">
+        <v>770</v>
+      </c>
       <c r="P225" t="s">
         <v>23</v>
       </c>
@@ -11803,8 +12695,12 @@
       <c r="L226" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M226" s="2"/>
-      <c r="N226" s="2"/>
+      <c r="M226" t="s">
+        <v>770</v>
+      </c>
+      <c r="N226" t="s">
+        <v>770</v>
+      </c>
       <c r="P226" t="s">
         <v>23</v>
       </c>
@@ -11843,8 +12739,12 @@
       <c r="L227" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M227" s="2"/>
-      <c r="N227" s="2"/>
+      <c r="M227" t="s">
+        <v>770</v>
+      </c>
+      <c r="N227" t="s">
+        <v>770</v>
+      </c>
       <c r="P227" t="s">
         <v>23</v>
       </c>
@@ -11883,8 +12783,12 @@
       <c r="L228" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M228" s="2"/>
-      <c r="N228" s="2"/>
+      <c r="M228" t="s">
+        <v>770</v>
+      </c>
+      <c r="N228" t="s">
+        <v>770</v>
+      </c>
       <c r="P228" t="s">
         <v>23</v>
       </c>
@@ -11923,8 +12827,12 @@
       <c r="L229" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M229" s="2"/>
-      <c r="N229" s="2"/>
+      <c r="M229" t="s">
+        <v>770</v>
+      </c>
+      <c r="N229" t="s">
+        <v>770</v>
+      </c>
       <c r="P229" t="s">
         <v>23</v>
       </c>
@@ -11963,8 +12871,12 @@
       <c r="L230" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M230" s="2"/>
-      <c r="N230" s="2"/>
+      <c r="M230" t="s">
+        <v>770</v>
+      </c>
+      <c r="N230" t="s">
+        <v>770</v>
+      </c>
       <c r="P230" t="s">
         <v>23</v>
       </c>
@@ -12003,8 +12915,12 @@
       <c r="L231" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M231" s="2"/>
-      <c r="N231" s="2"/>
+      <c r="M231" t="s">
+        <v>770</v>
+      </c>
+      <c r="N231" t="s">
+        <v>770</v>
+      </c>
       <c r="P231" t="s">
         <v>23</v>
       </c>
@@ -12043,8 +12959,12 @@
       <c r="L232" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M232" s="2"/>
-      <c r="N232" s="2"/>
+      <c r="M232" t="s">
+        <v>770</v>
+      </c>
+      <c r="N232" t="s">
+        <v>770</v>
+      </c>
       <c r="P232" t="s">
         <v>23</v>
       </c>
@@ -12083,8 +13003,12 @@
       <c r="L233" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M233" s="2"/>
-      <c r="N233" s="2"/>
+      <c r="M233" t="s">
+        <v>770</v>
+      </c>
+      <c r="N233" t="s">
+        <v>770</v>
+      </c>
       <c r="P233" t="s">
         <v>23</v>
       </c>
@@ -12123,8 +13047,12 @@
       <c r="L234" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M234" s="2"/>
-      <c r="N234" s="2"/>
+      <c r="M234" t="s">
+        <v>770</v>
+      </c>
+      <c r="N234" t="s">
+        <v>770</v>
+      </c>
       <c r="P234" t="s">
         <v>23</v>
       </c>
@@ -12163,8 +13091,12 @@
       <c r="L235" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M235" s="2"/>
-      <c r="N235" s="2"/>
+      <c r="M235" t="s">
+        <v>770</v>
+      </c>
+      <c r="N235" t="s">
+        <v>770</v>
+      </c>
       <c r="P235" t="s">
         <v>23</v>
       </c>
@@ -12203,8 +13135,12 @@
       <c r="L236" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M236" s="2"/>
-      <c r="N236" s="2"/>
+      <c r="M236" t="s">
+        <v>770</v>
+      </c>
+      <c r="N236" t="s">
+        <v>770</v>
+      </c>
       <c r="P236" t="s">
         <v>23</v>
       </c>
@@ -12243,8 +13179,12 @@
       <c r="L237" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M237" s="2"/>
-      <c r="N237" s="2"/>
+      <c r="M237" t="s">
+        <v>770</v>
+      </c>
+      <c r="N237" t="s">
+        <v>770</v>
+      </c>
       <c r="P237" t="s">
         <v>23</v>
       </c>
@@ -12283,8 +13223,12 @@
       <c r="L238" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M238" s="2"/>
-      <c r="N238" s="2"/>
+      <c r="M238" t="s">
+        <v>770</v>
+      </c>
+      <c r="N238" t="s">
+        <v>770</v>
+      </c>
       <c r="P238" t="s">
         <v>23</v>
       </c>
@@ -12323,8 +13267,12 @@
       <c r="L239" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M239" s="2"/>
-      <c r="N239" s="2"/>
+      <c r="M239" t="s">
+        <v>770</v>
+      </c>
+      <c r="N239" t="s">
+        <v>770</v>
+      </c>
       <c r="P239" t="s">
         <v>23</v>
       </c>
@@ -12363,8 +13311,12 @@
       <c r="L240" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M240" s="2"/>
-      <c r="N240" s="2"/>
+      <c r="M240" t="s">
+        <v>770</v>
+      </c>
+      <c r="N240" t="s">
+        <v>770</v>
+      </c>
       <c r="P240" t="s">
         <v>23</v>
       </c>
@@ -12403,8 +13355,12 @@
       <c r="L241" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M241" s="2"/>
-      <c r="N241" s="2"/>
+      <c r="M241" t="s">
+        <v>770</v>
+      </c>
+      <c r="N241" t="s">
+        <v>770</v>
+      </c>
       <c r="P241" t="s">
         <v>23</v>
       </c>
